--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03514831654910865</v>
+        <v>0.08266386729847572</v>
       </c>
       <c r="C2">
-        <v>1.423122695004648</v>
+        <v>1.266710845429791</v>
       </c>
       <c r="D2">
-        <v>9.937334558611084</v>
+        <v>10.58350078540567</v>
       </c>
       <c r="E2">
-        <v>3.152353812409242</v>
+        <v>3.253229285710688</v>
       </c>
       <c r="F2">
-        <v>3.187776590318614</v>
+        <v>3.288115649630924</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09840060587375393</v>
+        <v>0.03514831654910865</v>
       </c>
       <c r="C3">
-        <v>1.281838771272824</v>
+        <v>1.423122695004648</v>
       </c>
       <c r="D3">
-        <v>6.914821772733251</v>
+        <v>9.937334558611084</v>
       </c>
       <c r="E3">
-        <v>2.629604870077109</v>
+        <v>3.152353812409242</v>
       </c>
       <c r="F3">
-        <v>2.658142908795208</v>
+        <v>3.187776590318614</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07724211375212857</v>
+        <v>0.09840060587375393</v>
       </c>
       <c r="C4">
-        <v>1.297981654535435</v>
+        <v>1.281838771272824</v>
       </c>
       <c r="D4">
-        <v>8.346927492393009</v>
+        <v>6.914821772733251</v>
       </c>
       <c r="E4">
-        <v>2.889104963893318</v>
+        <v>2.629604870077109</v>
       </c>
       <c r="F4">
-        <v>2.922251779246585</v>
+        <v>2.658142908795208</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.103462960388591</v>
+        <v>0.07724211375212857</v>
       </c>
       <c r="C5">
-        <v>1.513618065531078</v>
+        <v>1.297981654535435</v>
       </c>
       <c r="D5">
-        <v>10.07658833808492</v>
+        <v>8.346927492393009</v>
       </c>
       <c r="E5">
-        <v>3.174364241558445</v>
+        <v>2.889104963893318</v>
       </c>
       <c r="F5">
-        <v>3.211135798088283</v>
+        <v>2.922251779246585</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09276345709376174</v>
+        <v>0.103462960388591</v>
       </c>
       <c r="C6">
-        <v>1.507917109460628</v>
+        <v>1.513618065531078</v>
       </c>
       <c r="D6">
-        <v>8.759488237397855</v>
+        <v>10.07658833808492</v>
       </c>
       <c r="E6">
-        <v>2.959643261847254</v>
+        <v>3.174364241558445</v>
       </c>
       <c r="F6">
-        <v>2.994938272800713</v>
+        <v>3.211135798088283</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1110273850348428</v>
+        <v>0.09276345709376174</v>
       </c>
       <c r="C7">
-        <v>1.540467465248691</v>
+        <v>1.507917109460628</v>
       </c>
       <c r="D7">
-        <v>9.141171017626672</v>
+        <v>8.759488237397855</v>
       </c>
       <c r="E7">
-        <v>3.023436954465343</v>
+        <v>2.959643261847254</v>
       </c>
       <c r="F7">
-        <v>3.059888373596456</v>
+        <v>2.994938272800713</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1105701935669736</v>
+        <v>0.1110273850348428</v>
       </c>
       <c r="C8">
-        <v>1.584148876164651</v>
+        <v>1.540467465248691</v>
       </c>
       <c r="D8">
-        <v>9.66376301499883</v>
+        <v>9.141171017626672</v>
       </c>
       <c r="E8">
-        <v>3.108659359756039</v>
+        <v>3.023436954465343</v>
       </c>
       <c r="F8">
-        <v>3.147304413238508</v>
+        <v>3.059888373596456</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1371748749035856</v>
+        <v>0.1105701935669736</v>
       </c>
       <c r="C9">
-        <v>1.681106322516158</v>
+        <v>1.584148876164651</v>
       </c>
       <c r="D9">
-        <v>10.12208319625707</v>
+        <v>9.66376301499883</v>
       </c>
       <c r="E9">
-        <v>3.181522150835519</v>
+        <v>3.108659359756039</v>
       </c>
       <c r="F9">
-        <v>3.221230743046974</v>
+        <v>3.147304413238508</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1266289788348244</v>
+        <v>0.1371748749035856</v>
       </c>
       <c r="C10">
-        <v>1.637224742133191</v>
+        <v>1.681106322516158</v>
       </c>
       <c r="D10">
-        <v>10.07969748954392</v>
+        <v>10.12208319625707</v>
       </c>
       <c r="E10">
-        <v>3.174853932001269</v>
+        <v>3.181522150835519</v>
       </c>
       <c r="F10">
-        <v>3.216085940138075</v>
+        <v>3.221230743046974</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07541644766003691</v>
+        <v>0.1266289788348244</v>
       </c>
       <c r="C11">
-        <v>1.615286141588432</v>
+        <v>1.637224742133191</v>
       </c>
       <c r="D11">
-        <v>9.971429874022112</v>
+        <v>10.07969748954392</v>
       </c>
       <c r="E11">
-        <v>3.157757095474905</v>
+        <v>3.174853932001269</v>
       </c>
       <c r="F11">
-        <v>3.201636726086922</v>
+        <v>3.216085940138075</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
